--- a/LFI Quantum Readiness Index.xlsx
+++ b/LFI Quantum Readiness Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShayneDelaForce\Desktop\Quantum Readiness Index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD460A7-359D-47EA-88C3-171B5D872274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C5A1E5-DC70-4B08-B4B2-A3F4A0C9C2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{7FF5A54F-58FB-4E4D-8E0C-774001331C68}"/>
   </bookViews>
@@ -6638,19 +6638,19 @@
     </r>
   </si>
   <si>
-    <t>PILLAR 1: STRATEGY</t>
-  </si>
-  <si>
-    <t>PILLAR 2: TECHNOLOGY</t>
-  </si>
-  <si>
-    <t>PILLAR 3: OPERATIONS</t>
-  </si>
-  <si>
     <t>We prevent Vendor Lock-in. We ensure your code is portable and not hard-coded to a single machine.</t>
   </si>
   <si>
     <t>We build your Internal Training Academy. We institutionalize knowledge so it doesn't leave when an employee departs the company.</t>
+  </si>
+  <si>
+    <t>Strategic Pillar 1: Strategy</t>
+  </si>
+  <si>
+    <t>Strategic Pillar 2: Technology</t>
+  </si>
+  <si>
+    <t>Strategic Pillar 3: Operations</t>
   </si>
 </sst>
 </file>
@@ -7367,12 +7367,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11965,8 +11965,8 @@
   </sheetPr>
   <dimension ref="B3:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D33" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12022,7 +12022,7 @@
     </row>
     <row r="6" spans="2:8" ht="58" x14ac:dyDescent="0.35">
       <c r="B6" s="104" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C6" s="105" t="s">
         <v>0</v>
@@ -12392,7 +12392,7 @@
     </row>
     <row r="24" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B24" s="112" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C24" s="41" t="s">
         <v>4</v>
@@ -12404,7 +12404,7 @@
         <v>29</v>
       </c>
       <c r="F24" s="40" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G24" s="48" t="s">
         <v>143</v>
@@ -12600,7 +12600,7 @@
     </row>
     <row r="34" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B34" s="112" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C34" s="41" t="s">
         <v>7</v>
@@ -12672,7 +12672,7 @@
         <v>42</v>
       </c>
       <c r="F37" s="40" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G37" s="48" t="s">
         <v>462</v>
@@ -13362,131 +13362,131 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:136" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.4">
-      <c r="C5" s="124" t="str">
+      <c r="C5" s="123" t="str">
         <f>'Quantum Readiness Index'!D6</f>
         <v>A.1: Understanding opportunities</v>
       </c>
-      <c r="D5" s="124"/>
-      <c r="F5" s="124" t="str">
+      <c r="D5" s="123"/>
+      <c r="F5" s="123" t="str">
         <f>'Quantum Readiness Index'!D7</f>
         <v>A.2: Forecasting market scenarios</v>
       </c>
-      <c r="G5" s="124"/>
+      <c r="G5" s="123"/>
       <c r="I5" s="35" t="str">
         <f>'Quantum Readiness Index'!D8</f>
         <v>A.3: Monitoring market data</v>
       </c>
       <c r="J5" s="36"/>
-      <c r="L5" s="124" t="str">
+      <c r="L5" s="123" t="str">
         <f>'Quantum Readiness Index'!D9</f>
         <v>A.4: Business value of startups</v>
       </c>
-      <c r="M5" s="124"/>
-      <c r="O5" s="122" t="str">
+      <c r="M5" s="123"/>
+      <c r="O5" s="124" t="str">
         <f>'Quantum Readiness Index'!D10</f>
         <v>A.5: Acquisition pipeline</v>
       </c>
-      <c r="P5" s="122"/>
-      <c r="R5" s="122" t="str">
+      <c r="P5" s="124"/>
+      <c r="R5" s="124" t="str">
         <f>'Quantum Readiness Index'!D11</f>
         <v>B.6: Use case differentiation</v>
       </c>
-      <c r="S5" s="122"/>
-      <c r="U5" s="123" t="str">
+      <c r="S5" s="124"/>
+      <c r="U5" s="122" t="str">
         <f>'Quantum Readiness Index'!D12</f>
         <v>B.7: Timing of value realization</v>
       </c>
-      <c r="V5" s="123"/>
-      <c r="X5" s="122" t="str">
+      <c r="V5" s="122"/>
+      <c r="X5" s="124" t="str">
         <f>'Quantum Readiness Index'!D13</f>
         <v>B.8: Processes and governance</v>
       </c>
-      <c r="Y5" s="122"/>
-      <c r="AA5" s="122" t="str">
+      <c r="Y5" s="124"/>
+      <c r="AA5" s="124" t="str">
         <f>'Quantum Readiness Index'!D14</f>
         <v>B.9: No-regret capabilities</v>
       </c>
-      <c r="AB5" s="122"/>
-      <c r="AD5" s="122" t="str">
+      <c r="AB5" s="124"/>
+      <c r="AD5" s="124" t="str">
         <f>'Quantum Readiness Index'!D15</f>
         <v>B.10: Use case exploration</v>
       </c>
-      <c r="AE5" s="122"/>
-      <c r="AG5" s="123" t="str">
+      <c r="AE5" s="124"/>
+      <c r="AG5" s="122" t="str">
         <f>'Quantum Readiness Index'!D16</f>
         <v>C.11: Protection of IP</v>
       </c>
-      <c r="AH5" s="123"/>
-      <c r="AJ5" s="122" t="str">
+      <c r="AH5" s="122"/>
+      <c r="AJ5" s="124" t="str">
         <f>'Quantum Readiness Index'!D17</f>
         <v>C.12: Decision models</v>
       </c>
-      <c r="AK5" s="122"/>
-      <c r="AM5" s="123" t="str">
+      <c r="AK5" s="124"/>
+      <c r="AM5" s="122" t="str">
         <f>'Quantum Readiness Index'!D18</f>
         <v>C.13: Invention assessments</v>
       </c>
-      <c r="AN5" s="123"/>
-      <c r="AP5" s="122" t="str">
+      <c r="AN5" s="122"/>
+      <c r="AP5" s="124" t="str">
         <f>'Quantum Readiness Index'!D19</f>
         <v>C.14: New filings</v>
       </c>
-      <c r="AQ5" s="122"/>
-      <c r="AS5" s="122" t="str">
+      <c r="AQ5" s="124"/>
+      <c r="AS5" s="124" t="str">
         <f>'Quantum Readiness Index'!D20</f>
         <v>C.15: Licensing strategy</v>
       </c>
-      <c r="AT5" s="122"/>
-      <c r="AV5" s="123" t="str">
+      <c r="AT5" s="124"/>
+      <c r="AV5" s="122" t="str">
         <f>'Quantum Readiness Index'!D21</f>
         <v>D.16: Engaging regulatory agencies</v>
       </c>
-      <c r="AW5" s="123"/>
-      <c r="AY5" s="123" t="str">
+      <c r="AW5" s="122"/>
+      <c r="AY5" s="122" t="str">
         <f>'Quantum Readiness Index'!D22</f>
         <v>D.17: Understanding standards</v>
       </c>
-      <c r="AZ5" s="123"/>
-      <c r="BB5" s="123" t="str">
+      <c r="AZ5" s="122"/>
+      <c r="BB5" s="122" t="str">
         <f>'Quantum Readiness Index'!D23</f>
         <v>D.18: Stakeholder collaboration</v>
       </c>
-      <c r="BC5" s="123"/>
-      <c r="BE5" s="123" t="str">
+      <c r="BC5" s="122"/>
+      <c r="BE5" s="122" t="str">
         <f>'Quantum Readiness Index'!D24</f>
         <v>E.19: Containerized workloads</v>
       </c>
-      <c r="BF5" s="123"/>
-      <c r="BH5" s="123" t="str">
+      <c r="BF5" s="122"/>
+      <c r="BH5" s="122" t="str">
         <f>'Quantum Readiness Index'!D25</f>
         <v>E.20: Quantum-classical orchestration</v>
       </c>
-      <c r="BI5" s="123"/>
-      <c r="BK5" s="122" t="str">
+      <c r="BI5" s="122"/>
+      <c r="BK5" s="124" t="str">
         <f>'Quantum Readiness Index'!D26</f>
         <v>E.21: Optimized application times</v>
       </c>
-      <c r="BL5" s="122"/>
-      <c r="BN5" s="122" t="str">
+      <c r="BL5" s="124"/>
+      <c r="BN5" s="124" t="str">
         <f>'Quantum Readiness Index'!D27</f>
         <v>E.22: Interoperating workloads</v>
       </c>
-      <c r="BO5" s="122"/>
-      <c r="BQ5" s="123" t="str">
+      <c r="BO5" s="124"/>
+      <c r="BQ5" s="122" t="str">
         <f>'Quantum Readiness Index'!D28</f>
         <v>F.23: AI/ML models</v>
       </c>
-      <c r="BR5" s="123"/>
-      <c r="BT5" s="123" t="str">
+      <c r="BR5" s="122"/>
+      <c r="BT5" s="122" t="str">
         <f>'Quantum Readiness Index'!D29</f>
         <v>F.24: Advanced computational models</v>
       </c>
-      <c r="BU5" s="123"/>
-      <c r="BW5" s="122" t="str">
+      <c r="BU5" s="122"/>
+      <c r="BW5" s="124" t="str">
         <f>'Quantum Readiness Index'!D30</f>
         <v>F.25: Data maturity</v>
       </c>
-      <c r="BX5" s="122"/>
+      <c r="BX5" s="124"/>
       <c r="BZ5" s="35" t="str">
         <f>'Quantum Readiness Index'!D31</f>
         <v>G.26: Cloud-based tools</v>
@@ -14950,6 +14950,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="BW5:BX5"/>
+    <mergeCell ref="AP5:AQ5"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="AV5:AW5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="BB5:BC5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BH5:BI5"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BN5:BO5"/>
+    <mergeCell ref="BQ5:BR5"/>
+    <mergeCell ref="BT5:BU5"/>
     <mergeCell ref="AM5:AN5"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F5:G5"/>
@@ -14962,18 +14974,6 @@
     <mergeCell ref="AD5:AE5"/>
     <mergeCell ref="AG5:AH5"/>
     <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="BW5:BX5"/>
-    <mergeCell ref="AP5:AQ5"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="AV5:AW5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="BB5:BC5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BH5:BI5"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BN5:BO5"/>
-    <mergeCell ref="BQ5:BR5"/>
-    <mergeCell ref="BT5:BU5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
